--- a/data/input/nfl_picks_pool_draft_history.xlsx
+++ b/data/input/nfl_picks_pool_draft_history.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpw/Dropbox/Data_Science/projects/local_projects/2020-11-22_nfl_picks_pool/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpw/Dropbox/Data_Science/projects/github_projects/2021-11-10_nfl_picks_pool_streamlit/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9DC08A-0BFD-8E47-ADE5-CC0703DD359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F12472-923C-554E-9BE6-17D7EF279BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6CCC7566-E8E5-2640-A617-DD1A54D15C10}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="draft_history" sheetId="2" r:id="rId1"/>
     <sheet name="player_draft_ranks" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="54">
   <si>
     <t>RANK</t>
   </si>
@@ -195,12 +195,15 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>NoPoolIn2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +228,12 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -310,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,9 +349,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA69993-6016-2E43-86E7-9E4573D3E132}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -724,7 +732,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -736,12 +744,12 @@
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -753,12 +761,12 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -770,12 +778,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -787,12 +795,12 @@
         <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -804,12 +812,12 @@
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -821,12 +829,12 @@
         <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -838,12 +846,12 @@
         <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -855,12 +863,12 @@
         <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -872,12 +880,12 @@
         <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -889,12 +897,12 @@
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -906,12 +914,12 @@
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -923,12 +931,12 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -940,12 +948,12 @@
         <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -957,12 +965,12 @@
         <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
@@ -974,12 +982,12 @@
         <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -991,12 +999,12 @@
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -1008,12 +1016,12 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
@@ -1025,12 +1033,12 @@
         <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -1042,12 +1050,12 @@
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -1059,12 +1067,12 @@
         <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -1076,12 +1084,12 @@
         <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -1093,12 +1101,12 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -1110,12 +1118,12 @@
         <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" s="4">
         <v>4</v>
@@ -1127,12 +1135,12 @@
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26" s="4">
         <v>4</v>
@@ -1144,12 +1152,12 @@
         <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="4">
         <v>4</v>
@@ -1161,12 +1169,12 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
@@ -1178,12 +1186,12 @@
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -1195,12 +1203,12 @@
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="4">
         <v>99</v>
@@ -1212,12 +1220,12 @@
         <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" s="4">
         <v>99</v>
@@ -1229,12 +1237,12 @@
         <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="4">
         <v>99</v>
@@ -1246,29 +1254,29 @@
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="16">
+      <c r="A33" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="15">
         <v>99</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>32</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
+      <c r="E33" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -1276,16 +1284,16 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
+      <c r="D34" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -1293,8 +1301,8 @@
       <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>44</v>
+      <c r="D35" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -1302,7 +1310,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -1310,16 +1318,16 @@
       <c r="C36" s="4">
         <v>3</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>45</v>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -1327,16 +1335,16 @@
       <c r="C37" s="4">
         <v>4</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>46</v>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -1344,16 +1352,16 @@
       <c r="C38" s="4">
         <v>5</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
+      <c r="D38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -1365,12 +1373,12 @@
         <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -1378,16 +1386,16 @@
       <c r="C40" s="4">
         <v>7</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>48</v>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="4">
         <v>2</v>
@@ -1395,16 +1403,16 @@
       <c r="C41" s="4">
         <v>8</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>48</v>
+      <c r="D41" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -1416,12 +1424,12 @@
         <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
@@ -1429,16 +1437,16 @@
       <c r="C43" s="4">
         <v>10</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
+      <c r="D43" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -1446,16 +1454,16 @@
       <c r="C44" s="4">
         <v>11</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>46</v>
+      <c r="D44" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
@@ -1463,16 +1471,16 @@
       <c r="C45" s="4">
         <v>12</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>45</v>
+      <c r="D45" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
@@ -1480,16 +1488,16 @@
       <c r="C46" s="4">
         <v>13</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>44</v>
+      <c r="D46" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B47" s="4">
         <v>2</v>
@@ -1497,16 +1505,16 @@
       <c r="C47" s="4">
         <v>14</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>43</v>
+      <c r="D47" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B48" s="4">
         <v>3</v>
@@ -1514,16 +1522,16 @@
       <c r="C48" s="4">
         <v>15</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>43</v>
+      <c r="D48" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
@@ -1531,16 +1539,16 @@
       <c r="C49" s="4">
         <v>16</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>44</v>
+      <c r="D49" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
@@ -1548,16 +1556,16 @@
       <c r="C50" s="4">
         <v>17</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>45</v>
+      <c r="D50" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
@@ -1565,16 +1573,16 @@
       <c r="C51" s="4">
         <v>18</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>46</v>
+      <c r="D51" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
@@ -1582,16 +1590,16 @@
       <c r="C52" s="4">
         <v>19</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>2</v>
+      <c r="D52" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B53" s="4">
         <v>3</v>
@@ -1603,12 +1611,12 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -1616,16 +1624,16 @@
       <c r="C54" s="4">
         <v>21</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>48</v>
+      <c r="D54" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B55" s="4">
         <v>4</v>
@@ -1633,16 +1641,16 @@
       <c r="C55" s="4">
         <v>22</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>48</v>
+      <c r="D55" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B56" s="4">
         <v>4</v>
@@ -1654,12 +1662,12 @@
         <v>47</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B57" s="4">
         <v>4</v>
@@ -1667,16 +1675,16 @@
       <c r="C57" s="4">
         <v>24</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>2</v>
+      <c r="D57" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B58" s="4">
         <v>4</v>
@@ -1684,16 +1692,16 @@
       <c r="C58" s="4">
         <v>25</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>46</v>
+      <c r="D58" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" s="4">
         <v>4</v>
@@ -1701,16 +1709,16 @@
       <c r="C59" s="4">
         <v>26</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>45</v>
+      <c r="D59" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="4">
         <v>4</v>
@@ -1718,16 +1726,16 @@
       <c r="C60" s="4">
         <v>27</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>44</v>
+      <c r="D60" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B61" s="4">
         <v>4</v>
@@ -1735,16 +1743,16 @@
       <c r="C61" s="4">
         <v>28</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>43</v>
+      <c r="D61" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62" s="4">
         <v>99</v>
@@ -1756,12 +1764,12 @@
         <v>49</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B63" s="4">
         <v>99</v>
@@ -1773,12 +1781,12 @@
         <v>49</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" s="4">
         <v>99</v>
@@ -1790,29 +1798,29 @@
         <v>49</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>2020</v>
-      </c>
-      <c r="B65" s="16">
+      <c r="A65" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="15">
         <v>99</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="15">
         <v>32</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B66" s="4">
         <v>1</v>
@@ -1820,8 +1828,8 @@
       <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>2</v>
+      <c r="D66" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -1829,7 +1837,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B67" s="4">
         <v>1</v>
@@ -1837,16 +1845,16 @@
       <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>47</v>
+      <c r="D67" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
@@ -1854,16 +1862,16 @@
       <c r="C68" s="4">
         <v>3</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>46</v>
+      <c r="D68" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
@@ -1871,16 +1879,16 @@
       <c r="C69" s="4">
         <v>4</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>48</v>
+      <c r="D69" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -1888,16 +1896,16 @@
       <c r="C70" s="4">
         <v>5</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>44</v>
+      <c r="D70" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -1905,16 +1913,16 @@
       <c r="C71" s="4">
         <v>6</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>43</v>
+      <c r="D71" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B72" s="4">
         <v>1</v>
@@ -1922,16 +1930,16 @@
       <c r="C72" s="4">
         <v>7</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>45</v>
+      <c r="D72" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B73" s="4">
         <v>2</v>
@@ -1939,16 +1947,16 @@
       <c r="C73" s="4">
         <v>8</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>45</v>
+      <c r="D73" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B74" s="4">
         <v>2</v>
@@ -1956,16 +1964,16 @@
       <c r="C74" s="4">
         <v>9</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>43</v>
+      <c r="D74" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B75" s="4">
         <v>2</v>
@@ -1973,16 +1981,16 @@
       <c r="C75" s="4">
         <v>10</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>44</v>
+      <c r="D75" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B76" s="4">
         <v>2</v>
@@ -1990,16 +1998,16 @@
       <c r="C76" s="4">
         <v>11</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>48</v>
+      <c r="D76" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B77" s="4">
         <v>2</v>
@@ -2007,16 +2015,16 @@
       <c r="C77" s="4">
         <v>12</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>46</v>
+      <c r="D77" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B78" s="4">
         <v>2</v>
@@ -2024,16 +2032,16 @@
       <c r="C78" s="4">
         <v>13</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>47</v>
+      <c r="D78" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B79" s="4">
         <v>2</v>
@@ -2041,16 +2049,16 @@
       <c r="C79" s="4">
         <v>14</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>2</v>
+      <c r="D79" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B80" s="4">
         <v>3</v>
@@ -2058,16 +2066,16 @@
       <c r="C80" s="4">
         <v>15</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>2</v>
+      <c r="D80" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B81" s="4">
         <v>3</v>
@@ -2075,16 +2083,16 @@
       <c r="C81" s="4">
         <v>16</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>47</v>
+      <c r="D81" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
@@ -2092,16 +2100,16 @@
       <c r="C82" s="4">
         <v>17</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>46</v>
+      <c r="D82" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B83" s="4">
         <v>3</v>
@@ -2109,16 +2117,16 @@
       <c r="C83" s="4">
         <v>18</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>48</v>
+      <c r="D83" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
@@ -2126,16 +2134,16 @@
       <c r="C84" s="4">
         <v>19</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>44</v>
+      <c r="D84" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
@@ -2143,16 +2151,16 @@
       <c r="C85" s="4">
         <v>20</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>43</v>
+      <c r="D85" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B86" s="4">
         <v>3</v>
@@ -2160,16 +2168,16 @@
       <c r="C86" s="4">
         <v>21</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>45</v>
+      <c r="D86" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B87" s="4">
         <v>4</v>
@@ -2177,16 +2185,16 @@
       <c r="C87" s="4">
         <v>22</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>45</v>
+      <c r="D87" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B88" s="4">
         <v>4</v>
@@ -2194,16 +2202,16 @@
       <c r="C88" s="4">
         <v>23</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>43</v>
+      <c r="D88" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B89" s="4">
         <v>4</v>
@@ -2211,8 +2219,8 @@
       <c r="C89" s="4">
         <v>24</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>44</v>
+      <c r="D89" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>26</v>
@@ -2220,7 +2228,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" s="4">
         <v>4</v>
@@ -2228,8 +2236,8 @@
       <c r="C90" s="4">
         <v>25</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>48</v>
+      <c r="D90" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>32</v>
@@ -2237,7 +2245,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" s="4">
         <v>4</v>
@@ -2245,16 +2253,16 @@
       <c r="C91" s="4">
         <v>26</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>46</v>
+      <c r="D91" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B92" s="4">
         <v>4</v>
@@ -2262,16 +2270,16 @@
       <c r="C92" s="4">
         <v>27</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>47</v>
+      <c r="D92" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B93" s="4">
         <v>4</v>
@@ -2279,16 +2287,16 @@
       <c r="C93" s="4">
         <v>28</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>2</v>
+      <c r="D93" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B94" s="4">
         <v>99</v>
@@ -2300,12 +2308,12 @@
         <v>49</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B95" s="4">
         <v>99</v>
@@ -2317,12 +2325,12 @@
         <v>49</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B96" s="4">
         <v>99</v>
@@ -2334,29 +2342,29 @@
         <v>49</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
-        <v>2019</v>
-      </c>
-      <c r="B97" s="16">
+      <c r="A97" s="15">
+        <v>2020</v>
+      </c>
+      <c r="B97" s="15">
         <v>99</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>32</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -2364,16 +2372,16 @@
       <c r="C98" s="4">
         <v>1</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>48</v>
+      <c r="D98" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B99" s="4">
         <v>1</v>
@@ -2381,16 +2389,16 @@
       <c r="C99" s="4">
         <v>2</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>43</v>
+      <c r="D99" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -2398,16 +2406,16 @@
       <c r="C100" s="4">
         <v>3</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>44</v>
+      <c r="D100" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
@@ -2415,16 +2423,16 @@
       <c r="C101" s="4">
         <v>4</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>45</v>
+      <c r="D101" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -2432,16 +2440,16 @@
       <c r="C102" s="4">
         <v>5</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>2</v>
+      <c r="D102" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -2449,16 +2457,16 @@
       <c r="C103" s="4">
         <v>6</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>46</v>
+      <c r="D103" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
@@ -2466,16 +2474,16 @@
       <c r="C104" s="4">
         <v>7</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>47</v>
+      <c r="D104" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B105" s="4">
         <v>2</v>
@@ -2483,16 +2491,16 @@
       <c r="C105" s="4">
         <v>8</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>47</v>
+      <c r="D105" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B106" s="4">
         <v>2</v>
@@ -2500,16 +2508,16 @@
       <c r="C106" s="4">
         <v>9</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>46</v>
+      <c r="D106" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B107" s="4">
         <v>2</v>
@@ -2517,16 +2525,16 @@
       <c r="C107" s="4">
         <v>10</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>2</v>
+      <c r="D107" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B108" s="4">
         <v>2</v>
@@ -2534,16 +2542,16 @@
       <c r="C108" s="4">
         <v>11</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>45</v>
+      <c r="D108" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B109" s="4">
         <v>2</v>
@@ -2551,16 +2559,16 @@
       <c r="C109" s="4">
         <v>12</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>44</v>
+      <c r="D109" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B110" s="4">
         <v>2</v>
@@ -2568,16 +2576,16 @@
       <c r="C110" s="4">
         <v>13</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>43</v>
+      <c r="D110" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B111" s="4">
         <v>2</v>
@@ -2585,16 +2593,16 @@
       <c r="C111" s="4">
         <v>14</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>48</v>
+      <c r="D111" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B112" s="4">
         <v>3</v>
@@ -2602,16 +2610,16 @@
       <c r="C112" s="4">
         <v>15</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>48</v>
+      <c r="D112" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B113" s="4">
         <v>3</v>
@@ -2619,16 +2627,16 @@
       <c r="C113" s="4">
         <v>16</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>43</v>
+      <c r="D113" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B114" s="4">
         <v>3</v>
@@ -2636,16 +2644,16 @@
       <c r="C114" s="4">
         <v>17</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>44</v>
+      <c r="D114" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B115" s="4">
         <v>3</v>
@@ -2653,16 +2661,16 @@
       <c r="C115" s="4">
         <v>18</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>45</v>
+      <c r="D115" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B116" s="4">
         <v>3</v>
@@ -2670,16 +2678,16 @@
       <c r="C116" s="4">
         <v>19</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>2</v>
+      <c r="D116" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B117" s="4">
         <v>3</v>
@@ -2687,16 +2695,16 @@
       <c r="C117" s="4">
         <v>20</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>46</v>
+      <c r="D117" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B118" s="4">
         <v>3</v>
@@ -2704,16 +2712,16 @@
       <c r="C118" s="4">
         <v>21</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>47</v>
+      <c r="D118" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B119" s="4">
         <v>4</v>
@@ -2721,16 +2729,16 @@
       <c r="C119" s="4">
         <v>22</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>47</v>
+      <c r="D119" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B120" s="4">
         <v>4</v>
@@ -2738,8 +2746,8 @@
       <c r="C120" s="4">
         <v>23</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>46</v>
+      <c r="D120" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>29</v>
@@ -2747,7 +2755,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B121" s="4">
         <v>4</v>
@@ -2755,16 +2763,16 @@
       <c r="C121" s="4">
         <v>24</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>2</v>
+      <c r="D121" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B122" s="4">
         <v>4</v>
@@ -2772,16 +2780,16 @@
       <c r="C122" s="4">
         <v>25</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>45</v>
+      <c r="D122" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B123" s="4">
         <v>4</v>
@@ -2789,16 +2797,16 @@
       <c r="C123" s="4">
         <v>26</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>44</v>
+      <c r="D123" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B124" s="4">
         <v>4</v>
@@ -2806,16 +2814,16 @@
       <c r="C124" s="4">
         <v>27</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>43</v>
+      <c r="D124" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B125" s="4">
         <v>4</v>
@@ -2823,16 +2831,16 @@
       <c r="C125" s="4">
         <v>28</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>48</v>
+      <c r="D125" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B126" s="4">
         <v>99</v>
@@ -2844,12 +2852,12 @@
         <v>49</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B127" s="4">
         <v>99</v>
@@ -2861,12 +2869,12 @@
         <v>49</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B128" s="4">
         <v>99</v>
@@ -2878,29 +2886,29 @@
         <v>49</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B129" s="15">
+        <v>99</v>
+      </c>
+      <c r="C129" s="15">
+        <v>32</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="16">
-        <v>2018</v>
-      </c>
-      <c r="B129" s="16">
-        <v>99</v>
-      </c>
-      <c r="C129" s="16">
-        <v>32</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B130" s="4">
         <v>1</v>
@@ -2908,16 +2916,16 @@
       <c r="C130" s="4">
         <v>1</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>44</v>
+      <c r="D130" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B131" s="4">
         <v>1</v>
@@ -2929,12 +2937,12 @@
         <v>43</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
@@ -2942,16 +2950,16 @@
       <c r="C132" s="4">
         <v>3</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>46</v>
+      <c r="D132" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B133" s="4">
         <v>1</v>
@@ -2959,16 +2967,16 @@
       <c r="C133" s="4">
         <v>4</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>2</v>
+      <c r="D133" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B134" s="4">
         <v>1</v>
@@ -2976,16 +2984,16 @@
       <c r="C134" s="4">
         <v>5</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>47</v>
+      <c r="D134" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B135" s="4">
         <v>1</v>
@@ -2993,16 +3001,16 @@
       <c r="C135" s="4">
         <v>6</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>48</v>
+      <c r="D135" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B136" s="4">
         <v>1</v>
@@ -3010,16 +3018,16 @@
       <c r="C136" s="4">
         <v>7</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>45</v>
+      <c r="D136" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B137" s="4">
         <v>2</v>
@@ -3027,16 +3035,16 @@
       <c r="C137" s="4">
         <v>8</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>45</v>
+      <c r="D137" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B138" s="4">
         <v>2</v>
@@ -3044,8 +3052,8 @@
       <c r="C138" s="4">
         <v>9</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>48</v>
+      <c r="D138" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>18</v>
@@ -3053,7 +3061,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B139" s="4">
         <v>2</v>
@@ -3061,16 +3069,16 @@
       <c r="C139" s="4">
         <v>10</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>47</v>
+      <c r="D139" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B140" s="4">
         <v>2</v>
@@ -3078,16 +3086,16 @@
       <c r="C140" s="4">
         <v>11</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>2</v>
+      <c r="D140" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B141" s="4">
         <v>2</v>
@@ -3095,16 +3103,16 @@
       <c r="C141" s="4">
         <v>12</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>46</v>
+      <c r="D141" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B142" s="4">
         <v>2</v>
@@ -3116,12 +3124,12 @@
         <v>43</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B143" s="4">
         <v>2</v>
@@ -3129,16 +3137,16 @@
       <c r="C143" s="4">
         <v>14</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>44</v>
+      <c r="D143" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B144" s="4">
         <v>3</v>
@@ -3146,16 +3154,16 @@
       <c r="C144" s="4">
         <v>15</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>44</v>
+      <c r="D144" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B145" s="4">
         <v>3</v>
@@ -3167,12 +3175,12 @@
         <v>43</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B146" s="4">
         <v>3</v>
@@ -3180,16 +3188,16 @@
       <c r="C146" s="4">
         <v>17</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>46</v>
+      <c r="D146" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B147" s="4">
         <v>3</v>
@@ -3197,16 +3205,16 @@
       <c r="C147" s="4">
         <v>18</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>2</v>
+      <c r="D147" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B148" s="4">
         <v>3</v>
@@ -3214,16 +3222,16 @@
       <c r="C148" s="4">
         <v>19</v>
       </c>
-      <c r="D148" s="10" t="s">
-        <v>47</v>
+      <c r="D148" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B149" s="4">
         <v>3</v>
@@ -3231,16 +3239,16 @@
       <c r="C149" s="4">
         <v>20</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>48</v>
+      <c r="D149" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B150" s="4">
         <v>3</v>
@@ -3248,16 +3256,16 @@
       <c r="C150" s="4">
         <v>21</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>45</v>
+      <c r="D150" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B151" s="4">
         <v>4</v>
@@ -3265,16 +3273,16 @@
       <c r="C151" s="4">
         <v>22</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>45</v>
+      <c r="D151" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B152" s="4">
         <v>4</v>
@@ -3282,16 +3290,16 @@
       <c r="C152" s="4">
         <v>23</v>
       </c>
-      <c r="D152" s="11" t="s">
-        <v>48</v>
+      <c r="D152" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B153" s="4">
         <v>4</v>
@@ -3299,16 +3307,16 @@
       <c r="C153" s="4">
         <v>24</v>
       </c>
-      <c r="D153" s="10" t="s">
-        <v>47</v>
+      <c r="D153" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B154" s="4">
         <v>4</v>
@@ -3316,16 +3324,16 @@
       <c r="C154" s="4">
         <v>25</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>2</v>
+      <c r="D154" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B155" s="4">
         <v>4</v>
@@ -3333,16 +3341,16 @@
       <c r="C155" s="4">
         <v>26</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>46</v>
+      <c r="D155" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B156" s="4">
         <v>4</v>
@@ -3354,12 +3362,12 @@
         <v>43</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B157" s="4">
         <v>4</v>
@@ -3367,16 +3375,16 @@
       <c r="C157" s="4">
         <v>28</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>44</v>
+      <c r="D157" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B158" s="4">
         <v>99</v>
@@ -3388,12 +3396,12 @@
         <v>49</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B159" s="4">
         <v>99</v>
@@ -3405,12 +3413,12 @@
         <v>49</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B160" s="4">
         <v>99</v>
@@ -3422,32 +3430,577 @@
         <v>49</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="15">
+        <v>2018</v>
+      </c>
+      <c r="B161" s="15">
+        <v>99</v>
+      </c>
+      <c r="C161" s="15">
+        <v>32</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4">
+        <v>2</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4">
+        <v>3</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1</v>
+      </c>
+      <c r="C165" s="4">
+        <v>4</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4">
+        <v>5</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4">
+        <v>6</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4">
+        <v>7</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B169" s="4">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4">
+        <v>8</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B170" s="4">
+        <v>2</v>
+      </c>
+      <c r="C170" s="4">
+        <v>9</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B171" s="4">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4">
+        <v>10</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B172" s="4">
+        <v>2</v>
+      </c>
+      <c r="C172" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2</v>
+      </c>
+      <c r="C173" s="4">
+        <v>12</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2</v>
+      </c>
+      <c r="C174" s="4">
+        <v>13</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B175" s="4">
+        <v>2</v>
+      </c>
+      <c r="C175" s="4">
+        <v>14</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B176" s="4">
+        <v>3</v>
+      </c>
+      <c r="C176" s="4">
+        <v>15</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B177" s="4">
+        <v>3</v>
+      </c>
+      <c r="C177" s="4">
+        <v>16</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B178" s="4">
+        <v>3</v>
+      </c>
+      <c r="C178" s="4">
+        <v>17</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B179" s="4">
+        <v>3</v>
+      </c>
+      <c r="C179" s="4">
+        <v>18</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B180" s="4">
+        <v>3</v>
+      </c>
+      <c r="C180" s="4">
+        <v>19</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B181" s="4">
+        <v>3</v>
+      </c>
+      <c r="C181" s="4">
+        <v>20</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B182" s="4">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4">
+        <v>21</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B183" s="4">
+        <v>4</v>
+      </c>
+      <c r="C183" s="4">
+        <v>22</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B184" s="4">
+        <v>4</v>
+      </c>
+      <c r="C184" s="4">
+        <v>23</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B185" s="4">
+        <v>4</v>
+      </c>
+      <c r="C185" s="4">
+        <v>24</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B186" s="4">
+        <v>4</v>
+      </c>
+      <c r="C186" s="4">
+        <v>25</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B187" s="4">
+        <v>4</v>
+      </c>
+      <c r="C187" s="4">
+        <v>26</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B188" s="4">
+        <v>4</v>
+      </c>
+      <c r="C188" s="4">
+        <v>27</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B189" s="4">
+        <v>4</v>
+      </c>
+      <c r="C189" s="4">
+        <v>28</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B190" s="4">
+        <v>99</v>
+      </c>
+      <c r="C190" s="4">
+        <v>29</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B191" s="4">
+        <v>99</v>
+      </c>
+      <c r="C191" s="4">
+        <v>30</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B192" s="4">
+        <v>99</v>
+      </c>
+      <c r="C192" s="4">
+        <v>31</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
         <v>2017</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B193" s="4">
         <v>99</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C193" s="4">
         <v>32</v>
       </c>
-      <c r="D161" s="12" t="s">
+      <c r="D193" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:E161">
-    <sortCondition descending="1" ref="A34:A161"/>
-    <sortCondition ref="B34:B161"/>
-    <sortCondition ref="C34:C161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A66:E193">
+    <sortCondition descending="1" ref="A66:A193"/>
+    <sortCondition ref="B66:B193"/>
+    <sortCondition ref="C66:C193"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3503,30 +4056,30 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3535,30 +4088,30 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3567,30 +4120,30 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3599,30 +4152,30 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -3634,27 +4187,27 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -3663,30 +4216,30 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -3695,30 +4248,30 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -3730,27 +4283,27 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -3762,27 +4315,27 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -3794,27 +4347,27 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -3826,27 +4379,27 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -3858,27 +4411,27 @@
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -3890,27 +4443,27 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -3922,27 +4475,27 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -3951,30 +4504,30 @@
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -3983,30 +4536,30 @@
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -4015,30 +4568,30 @@
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -4050,27 +4603,27 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -4079,30 +4632,30 @@
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -4114,27 +4667,27 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -4146,27 +4699,27 @@
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -4175,30 +4728,30 @@
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -4207,30 +4760,30 @@
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -4242,27 +4795,27 @@
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -4274,27 +4827,27 @@
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -4306,27 +4859,27 @@
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -4335,30 +4888,30 @@
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -4370,27 +4923,27 @@
       <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -4399,30 +4952,30 @@
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -4431,30 +4984,30 @@
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -4463,30 +5016,30 @@
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -4495,30 +5048,30 @@
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -4527,25 +5080,25 @@
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
